--- a/data_in/PesticideData/Models/Li2023-parameters.xlsx
+++ b/data_in/PesticideData/Models/Li2023-parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/paulukonis_elizabeth_epa_gov/Documents/Profile/Documents/GitHub/pollinator_probabilistic_loading/data_in/PesticideData/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="13_ncr:1_{39AD170E-B3CF-4D59-871B-8C5122753D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7755F0A3-BDD2-4686-91C5-7BF55A0120BB}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="13_ncr:1_{39AD170E-B3CF-4D59-871B-8C5122753D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6180F5B-CF2D-44A0-B489-A1A684B095F3}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15240" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="111">
   <si>
     <t>CAS RN</t>
   </si>
@@ -720,29 +720,6 @@
   </si>
   <si>
     <t>Rainfall intensity</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dissipation half-life RL50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="DengXian"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>used to approxiamte degradation rate constants in plant tissues)</t>
-    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1028,6 +1005,40 @@
   </si>
   <si>
     <t>Use relationship between Kow and Kch</t>
+  </si>
+  <si>
+    <t>Bifenthrin</t>
+  </si>
+  <si>
+    <t>Glyphosate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dissipation half-life RL50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DengXian"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>used to approxiamte degradation rate constants in plant tissues)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://comptox.epa.gov/dashboard/chemical/properties/DTXSID1024122</t>
+  </si>
+  <si>
+    <t>https://comptox.epa.gov/dashboard/chemical/details/DTXSID9020160</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1339,10 +1350,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1352,18 +1371,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,16 +1394,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111126</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>692262</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38112</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>145105</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>94556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1418,8 +1426,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7532688" y="3119438"/>
-          <a:ext cx="2171812" cy="228612"/>
+          <a:off x="8697737" y="3952875"/>
+          <a:ext cx="2171812" cy="226848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1732,7 +1740,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1742,22 +1750,22 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1769,13 +1777,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS46"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10.5"/>
@@ -1806,13 +1814,13 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="P1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>31</v>
@@ -1824,17 +1832,17 @@
       <c r="AK1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="48" t="s">
+      <c r="AL1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50"/>
-      <c r="AQ1" s="54" t="s">
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="52"/>
+      <c r="AQ1" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
     </row>
     <row r="2" spans="1:45" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -1844,10 +1852,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -1856,7 +1864,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>3</v>
@@ -1947,221 +1955,221 @@
         <v>60</v>
       </c>
       <c r="AM2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AO2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AQ2" s="14" t="s">
+      <c r="AR2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AS2" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="AS2" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:45">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51" t="s">
+      <c r="O3" s="46"/>
+      <c r="P3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51" t="s">
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="51" t="s">
+      <c r="W3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="51" t="s">
+      <c r="Y3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="51" t="s">
+      <c r="Z3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="51" t="s">
+      <c r="AA3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="51" t="s">
+      <c r="AB3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="51" t="s">
+      <c r="AC3" s="46" t="s">
         <v>14</v>
       </c>
       <c r="AD3" s="17"/>
-      <c r="AE3" s="51" t="s">
+      <c r="AE3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="51" t="s">
+      <c r="AF3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="51" t="s">
+      <c r="AG3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="51" t="s">
+      <c r="AH3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="51" t="s">
+      <c r="AI3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="51" t="s">
+      <c r="AJ3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AL3" s="51" t="s">
+      <c r="AL3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AM3" s="51" t="s">
+      <c r="AM3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AN3" s="51" t="s">
+      <c r="AN3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AO3" s="51" t="s">
+      <c r="AO3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="51"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
       <c r="AD4" s="17"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="18"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
       <c r="AD5" s="17"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
     </row>
     <row r="6" spans="1:45" ht="9.5" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -3347,10 +3355,10 @@
     </row>
     <row r="15" spans="1:45" s="45" customFormat="1">
       <c r="A15" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
@@ -3399,7 +3407,7 @@
         <v>1548.2866666666669</v>
       </c>
       <c r="Q15" s="42">
-        <f t="shared" ref="Q15:Q18" si="35">P15/O15</f>
+        <f t="shared" ref="Q15:Q20" si="35">P15/O15</f>
         <v>278110330551352.69</v>
       </c>
       <c r="R15" s="42">
@@ -3407,26 +3415,26 @@
         <v>1.1200667401584355E-3</v>
       </c>
       <c r="S15" s="42">
-        <f t="shared" ref="S15:S18" si="36">86.4/(0.0002*0.4*AI15)</f>
+        <f t="shared" ref="S15:S20" si="36">86.4/(0.0002*0.4*AI15)</f>
         <v>1.667617593372978E-10</v>
       </c>
       <c r="T15" s="38">
-        <f t="shared" ref="T15:T18" si="37">10^(0-0.011*E15-2.46)</f>
+        <f t="shared" ref="T15:T20" si="37">10^(0-0.011*E15-2.46)</f>
         <v>1.7215514242845365E-7</v>
       </c>
       <c r="U15" s="42">
-        <f t="shared" ref="U15:U18" si="38">T15*AJ15</f>
+        <f t="shared" ref="U15:U20" si="38">T15*AJ15</f>
         <v>0.45333578255001356</v>
       </c>
       <c r="V15" s="42">
-        <f t="shared" ref="V15:V18" si="39">4*AC15</f>
+        <f t="shared" ref="V15:V20" si="39">4*AC15</f>
         <v>0.81937523377694876</v>
       </c>
       <c r="W15" s="38">
         <v>3.39</v>
       </c>
       <c r="X15" s="42">
-        <f t="shared" ref="X15:X18" si="40">LN(2)/W15</f>
+        <f t="shared" ref="X15:X20" si="40">LN(2)/W15</f>
         <v>0.20446819485544107</v>
       </c>
       <c r="Y15" s="42">
@@ -3434,15 +3442,15 @@
         <v>0.20446819485544107</v>
       </c>
       <c r="Z15" s="42">
-        <f t="shared" ref="Z15:Z18" si="41">(0.0025*3*0.01)*(2500000*(31.145-0.1*298.15)/((298.15-33.85)^2)+610.78*(1-50/100))*EXP(17.2*(298.15-273.15)/(298.15-35.85))*3*0.001/(0.01*0.05*1.5*P15)</f>
+        <f t="shared" ref="Z15:Z20" si="41">(0.0025*3*0.01)*(2500000*(31.145-0.1*298.15)/((298.15-33.85)^2)+610.78*(1-50/100))*EXP(17.2*(298.15-273.15)/(298.15-35.85))*3*0.001/(0.01*0.05*1.5*P15)</f>
         <v>3.5236206926348302E-4</v>
       </c>
       <c r="AA15" s="42">
-        <f t="shared" ref="AA15:AA18" si="42">G15/(Q15*1.5*0.0001)</f>
+        <f t="shared" ref="AA15:AA20" si="42">G15/(Q15*1.5*0.0001)</f>
         <v>1.1413977754429694E-11</v>
       </c>
       <c r="AB15" s="42">
-        <f t="shared" ref="AB15:AB18" si="43">0.0027/(0.05*1.5*P15)</f>
+        <f t="shared" ref="AB15:AB20" si="43">0.0027/(0.05*1.5*P15)</f>
         <v>2.325150811865158E-5</v>
       </c>
       <c r="AC15" s="42">
@@ -3453,23 +3461,23 @@
         <v>4.05</v>
       </c>
       <c r="AE15" s="42">
-        <f t="shared" ref="AE15:AE18" si="44">LN(2)/AD15</f>
+        <f t="shared" ref="AE15:AE20" si="44">LN(2)/AD15</f>
         <v>0.17114745199010994</v>
       </c>
       <c r="AF15" s="44">
-        <f t="shared" ref="AF15:AF18" si="45">(0.7+J15*0.3+1.22*0*(H15^0.77))/(0.8+J15*0.1+1.22*0.02*(H15^0.77))</f>
+        <f t="shared" ref="AF15:AF20" si="45">(0.7+J15*0.3+1.22*0*(H15^0.77))/(0.8+J15*0.1+1.22*0.02*(H15^0.77))</f>
         <v>6.4265912467183217E-4</v>
       </c>
       <c r="AG15" s="44">
-        <f t="shared" ref="AG15:AG18" si="46">(0.13+J15*0.75+1.22*0.087*(H15^0.77))/(0.8+J15*0.1+1.22*0.02*(H15^0.77))</f>
+        <f t="shared" ref="AG15:AG20" si="46">(0.13+J15*0.75+1.22*0.087*(H15^0.77))/(0.8+J15*0.1+1.22*0.02*(H15^0.77))</f>
         <v>4.3490205102671835</v>
       </c>
       <c r="AH15" s="44">
-        <f t="shared" ref="AH15:AH18" si="47">0.8+(1/0.83)*0.02*(H15^0.95)</f>
+        <f t="shared" ref="AH15:AH20" si="47">0.8+(1/0.83)*0.02*(H15^0.95)</f>
         <v>36054.671231191227</v>
       </c>
       <c r="AI15" s="44">
-        <f t="shared" ref="AI15:AI18" si="48">AH15/O15</f>
+        <f t="shared" ref="AI15:AI20" si="48">AH15/O15</f>
         <v>6476304905224444</v>
       </c>
       <c r="AJ15" s="44">
@@ -3479,10 +3487,10 @@
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="8"/>
       <c r="E16" s="6">
@@ -3515,7 +3523,7 @@
         <f>LOG10(M16)</f>
         <v>2.399673721481038</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="26">
         <v>251</v>
       </c>
       <c r="N16" s="35">
@@ -3526,7 +3534,7 @@
         <v>9.6820296406462266E-12</v>
       </c>
       <c r="P16" s="26">
-        <f t="shared" ref="P16:P18" si="50">(0.023*1.6*M16+0.35+0.12*O16)/1.5</f>
+        <f t="shared" ref="P16:P20" si="50">(0.023*1.6*M16+0.35+0.12*O16)/1.5</f>
         <v>6.3912000000007749</v>
       </c>
       <c r="Q16" s="26">
@@ -3561,7 +3569,7 @@
         <v>0.19525272691829446</v>
       </c>
       <c r="Y16" s="26">
-        <f t="shared" ref="Y16:Y18" si="51">X16*EXP((60/8.314)*(1/298.15-1/298.15))</f>
+        <f t="shared" ref="Y16:Y20" si="51">X16*EXP((60/8.314)*(1/298.15-1/298.15))</f>
         <v>0.19525272691829446</v>
       </c>
       <c r="Z16" s="26">
@@ -3577,7 +3585,7 @@
         <v>5.6327450244078783E-3</v>
       </c>
       <c r="AC16" s="26">
-        <f t="shared" ref="AC16:AC18" si="52">SUM(Y16:AB16)</f>
+        <f t="shared" ref="AC16:AC20" si="52">SUM(Y16:AB16)</f>
         <v>0.28624620803879625</v>
       </c>
       <c r="AD16" s="8">
@@ -3604,16 +3612,16 @@
         <v>517123015970.1272</v>
       </c>
       <c r="AJ16" s="29">
-        <f t="shared" ref="AJ16:AJ18" si="53">10^(0.979*I16+0.057)</f>
+        <f t="shared" ref="AJ16:AJ20" si="53">10^(0.979*I16+0.057)</f>
         <v>233.04511293193272</v>
       </c>
     </row>
     <row r="17" spans="1:41">
       <c r="A17" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="8"/>
       <c r="E17" s="6">
@@ -3646,7 +3654,7 @@
         <f>LOG10(M17)</f>
         <v>3.6998377258672459</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M17" s="53">
         <v>5010</v>
       </c>
       <c r="N17" s="8">
@@ -3741,10 +3749,10 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="8"/>
       <c r="E18" s="6">
@@ -3777,7 +3785,7 @@
         <f>LOG10(M18)</f>
         <v>1.7497363155690611</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="26">
         <v>56.2</v>
       </c>
       <c r="N18" s="8">
@@ -3870,53 +3878,309 @@
         <v>96.745327696561333</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
-      <c r="AM19" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41">
-      <c r="C20" s="8"/>
-      <c r="AM20" s="19">
+    <row r="19" spans="1:41" s="32" customFormat="1">
+      <c r="A19" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25">
+        <v>422.12604199999998</v>
+      </c>
+      <c r="F19" s="26">
+        <f>0.0001728*((32)^0.5)/((E19)^0.5)</f>
+        <v>4.757706579914764E-5</v>
+      </c>
+      <c r="G19" s="26">
+        <f>2.22*((18)^0.5)/((E19)^0.5)</f>
+        <v>0.45842485275220385</v>
+      </c>
+      <c r="H19" s="26">
+        <f>10^I19</f>
+        <v>13803842.646028839</v>
+      </c>
+      <c r="I19" s="28">
+        <v>7.14</v>
+      </c>
+      <c r="J19" s="21">
+        <f>10^(0.741*I19-1.86)</f>
+        <v>2696.1248543980732</v>
+      </c>
+      <c r="K19" s="28">
+        <f>0.7*EXP(0-((I19-3.07)^2)/2.78)</f>
+        <v>1.8084736690307138E-3</v>
+      </c>
+      <c r="L19" s="26">
+        <f>LOG10(M19)</f>
+        <v>5.3502480183341632</v>
+      </c>
+      <c r="M19" s="26">
+        <v>224000</v>
+      </c>
+      <c r="N19" s="26">
+        <v>4.9000000000000002E-8</v>
+      </c>
+      <c r="O19" s="26">
+        <f>N19/(8.314*298.15)</f>
+        <v>1.9767477182986046E-11</v>
+      </c>
+      <c r="P19" s="26">
+        <f t="shared" si="50"/>
+        <v>5495.7000000000016</v>
+      </c>
+      <c r="Q19" s="26">
+        <f t="shared" si="35"/>
+        <v>278017267915714.34</v>
+      </c>
+      <c r="R19" s="26">
+        <f>(0.0938*K19/P19)*(2500000*(31.145-0.1*298.15)/((298.15-33.85)^2)+610.78*(1-50/100))*EXP(17.2*(298.15-273.15)/(298.15-35.85))</f>
+        <v>5.6132098901682014E-5</v>
+      </c>
+      <c r="S19" s="26">
+        <f t="shared" si="36"/>
+        <v>1.4602281686095716E-10</v>
+      </c>
+      <c r="T19" s="26">
+        <f t="shared" si="37"/>
+        <v>7.8815845349868854E-8</v>
+      </c>
+      <c r="U19" s="26">
+        <f t="shared" si="38"/>
+        <v>0.87836199815010652</v>
+      </c>
+      <c r="V19" s="26">
+        <f t="shared" si="39"/>
+        <v>0.79259148823212211</v>
+      </c>
+      <c r="W19" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="X19" s="26">
+        <f t="shared" si="40"/>
+        <v>0.19804205158855578</v>
+      </c>
+      <c r="Y19" s="26">
+        <f t="shared" si="51"/>
+        <v>0.19804205158855578</v>
+      </c>
+      <c r="Z19" s="26">
+        <f t="shared" si="41"/>
+        <v>9.9269882577238046E-5</v>
+      </c>
+      <c r="AA19" s="26">
+        <f t="shared" si="42"/>
+        <v>1.0992718934067147E-11</v>
+      </c>
+      <c r="AB19" s="26">
+        <f t="shared" si="43"/>
+        <v>6.5505759047982941E-6</v>
+      </c>
+      <c r="AC19" s="26">
+        <f t="shared" si="52"/>
+        <v>0.19814787205803053</v>
+      </c>
+      <c r="AD19" s="26">
+        <v>3.24</v>
+      </c>
+      <c r="AE19" s="26">
+        <f t="shared" si="44"/>
+        <v>0.21393431498763743</v>
+      </c>
+      <c r="AF19" s="29">
+        <f t="shared" si="45"/>
+        <v>0.10186215255943645</v>
+      </c>
+      <c r="AG19" s="29">
+        <f t="shared" si="46"/>
+        <v>4.4564412544549272</v>
+      </c>
+      <c r="AH19" s="32">
+        <f t="shared" si="47"/>
+        <v>146202.32520204916</v>
+      </c>
+      <c r="AI19" s="32">
+        <f t="shared" si="48"/>
+        <v>7396104411739812</v>
+      </c>
+      <c r="AJ19" s="29">
+        <f t="shared" si="53"/>
+        <v>11144484.897053357</v>
+      </c>
+      <c r="AM19" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" s="32" customFormat="1">
+      <c r="A20" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25">
+        <v>169.01400899999999</v>
+      </c>
+      <c r="F20" s="26">
+        <f>0.0001728*((32)^0.5)/((E20)^0.5)</f>
+        <v>7.5189530958011324E-5</v>
+      </c>
+      <c r="G20" s="26">
+        <f>2.22*((18)^0.5)/((E20)^0.5)</f>
+        <v>0.72448245975167158</v>
+      </c>
+      <c r="H20" s="26">
+        <f>10^I20</f>
+        <v>3.9810717055349708E-4</v>
+      </c>
+      <c r="I20" s="28">
+        <v>-3.4</v>
+      </c>
+      <c r="J20" s="21">
+        <f>10^(0.741*I20-1.86)</f>
+        <v>4.1744570782628998E-5</v>
+      </c>
+      <c r="K20" s="28">
+        <f>0.7*EXP(0-((I20-3.07)^2)/2.78)</f>
+        <v>2.020900105967504E-7</v>
+      </c>
+      <c r="L20" s="26">
+        <f>LOG10(M20)</f>
+        <v>3.3201462861110542</v>
+      </c>
+      <c r="M20" s="26">
+        <v>2090</v>
+      </c>
+      <c r="N20" s="26">
+        <v>5.13E-11</v>
+      </c>
+      <c r="O20" s="26">
+        <f>N20/(8.314*298.15)</f>
+        <v>2.069533835688131E-14</v>
+      </c>
+      <c r="P20" s="26">
+        <f t="shared" si="50"/>
+        <v>51.507999999999988</v>
+      </c>
+      <c r="Q20" s="26">
+        <f t="shared" si="35"/>
+        <v>2488869672569200</v>
+      </c>
+      <c r="R20" s="26">
+        <f>(0.0938*K20/P20)*(2500000*(31.145-0.1*298.15)/((298.15-33.85)^2)+610.78*(1-50/100))*EXP(17.2*(298.15-273.15)/(298.15-35.85))</f>
+        <v>6.6925599297703008E-7</v>
+      </c>
+      <c r="S20" s="26">
+        <f t="shared" si="36"/>
+        <v>2.793821126255953E-8</v>
+      </c>
+      <c r="T20" s="26">
+        <f t="shared" si="37"/>
+        <v>4.7956325690315855E-5</v>
+      </c>
+      <c r="U20" s="26">
+        <f t="shared" si="38"/>
+        <v>2.5659364789894155E-8</v>
+      </c>
+      <c r="V20" s="26">
+        <f>4*AC20</f>
+        <v>0.66542843193319634</v>
+      </c>
+      <c r="W20" s="26">
+        <v>4.47</v>
+      </c>
+      <c r="X20" s="26">
+        <f t="shared" si="40"/>
+        <v>0.15506648334674392</v>
+      </c>
+      <c r="Y20" s="26">
+        <f t="shared" si="51"/>
+        <v>0.15506648334674392</v>
+      </c>
+      <c r="Z20" s="26">
+        <f t="shared" si="41"/>
+        <v>1.0591704078584441E-2</v>
+      </c>
+      <c r="AA20" s="26">
+        <f t="shared" si="42"/>
+        <v>1.9405930002053391E-12</v>
+      </c>
+      <c r="AB20" s="26">
+        <f t="shared" si="43"/>
+        <v>6.9892055603013134E-4</v>
+      </c>
+      <c r="AC20" s="26">
+        <f t="shared" si="52"/>
+        <v>0.16635710798329909</v>
+      </c>
+      <c r="AD20" s="26">
+        <v>3.24</v>
+      </c>
+      <c r="AE20" s="26">
+        <f t="shared" si="44"/>
+        <v>0.21393431498763743</v>
+      </c>
+      <c r="AF20" s="32">
+        <f t="shared" si="45"/>
+        <v>0.87494677824011291</v>
+      </c>
+      <c r="AG20" s="32">
+        <f t="shared" si="46"/>
+        <v>0.16284605046632736</v>
+      </c>
+      <c r="AH20" s="32">
+        <f t="shared" si="47"/>
+        <v>0.80001418900374355</v>
+      </c>
+      <c r="AI20" s="32">
+        <f t="shared" si="48"/>
+        <v>38656733956598.227</v>
+      </c>
+      <c r="AJ20" s="29">
+        <f t="shared" si="53"/>
+        <v>5.3505693817313706E-4</v>
+      </c>
+      <c r="AM20" s="29">
         <f>AN10*0.099</f>
         <v>6.7682547750609017E-6</v>
       </c>
-      <c r="AN20" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO20" s="14" t="s">
-        <v>95</v>
+      <c r="AN20" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO20" s="32" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:41">
       <c r="A21" s="9"/>
       <c r="R21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM21" s="22">
         <f>AM20*1000</f>
         <v>6.7682547750609013E-3</v>
       </c>
       <c r="AN21" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="J23" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="AD23" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:41">
       <c r="J24" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="8:8">
-      <c r="H46" s="8">
-        <v>2.0999999999999999E-13</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="J25" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3924,6 +4188,33 @@
     <sortCondition descending="1" ref="D6:D12"/>
   </sortState>
   <mergeCells count="43">
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="AQ1:AS1"/>
@@ -3940,33 +4231,6 @@
     <mergeCell ref="N3:N5"/>
     <mergeCell ref="AG3:AG5"/>
     <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AF3:AF5"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="AC3:AC5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4010,10 +4274,10 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="P1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>47</v>
@@ -4028,17 +4292,17 @@
       <c r="AK1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="48" t="s">
+      <c r="AL1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50"/>
-      <c r="AQ1" s="54" t="s">
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="52"/>
+      <c r="AQ1" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
     </row>
     <row r="2" spans="1:45" ht="25">
       <c r="A2" s="5" t="s">
@@ -4048,10 +4312,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -4060,7 +4324,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>3</v>
@@ -4151,221 +4415,221 @@
         <v>60</v>
       </c>
       <c r="AM2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AO2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AQ2" s="14" t="s">
+      <c r="AR2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AS2" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="AS2" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:45">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51" t="s">
+      <c r="O3" s="46"/>
+      <c r="P3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51" t="s">
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="51" t="s">
+      <c r="W3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="51" t="s">
+      <c r="Y3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="51" t="s">
+      <c r="Z3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="51" t="s">
+      <c r="AA3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="51" t="s">
+      <c r="AB3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="51" t="s">
+      <c r="AC3" s="46" t="s">
         <v>14</v>
       </c>
       <c r="AD3" s="17"/>
-      <c r="AE3" s="51" t="s">
+      <c r="AE3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="51" t="s">
+      <c r="AF3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="51" t="s">
+      <c r="AG3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="51" t="s">
+      <c r="AH3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="51" t="s">
+      <c r="AI3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="51" t="s">
+      <c r="AJ3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AL3" s="51" t="s">
+      <c r="AL3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AM3" s="51" t="s">
+      <c r="AM3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AN3" s="51" t="s">
+      <c r="AN3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AO3" s="51" t="s">
+      <c r="AO3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="51"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
       <c r="AD4" s="17"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="18"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
       <c r="AD5" s="17"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="5" t="s">
@@ -5569,33 +5833,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AG3:AG5"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:AR5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="AF3:AF5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AE3:AE5"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="C3:C5"/>
@@ -5612,6 +5849,33 @@
     <mergeCell ref="M3:M5"/>
     <mergeCell ref="N3:N5"/>
     <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:AR5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5653,10 +5917,10 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="P1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>47</v>
@@ -5671,17 +5935,17 @@
       <c r="AK1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="48" t="s">
+      <c r="AL1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50"/>
-      <c r="AQ1" s="54" t="s">
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="52"/>
+      <c r="AQ1" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
     </row>
     <row r="2" spans="1:45" ht="25">
       <c r="A2" s="5" t="s">
@@ -5691,10 +5955,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -5703,7 +5967,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>3</v>
@@ -5794,221 +6058,221 @@
         <v>60</v>
       </c>
       <c r="AM2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AO2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AQ2" s="14" t="s">
+      <c r="AR2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AS2" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="AS2" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:45">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51" t="s">
+      <c r="O3" s="46"/>
+      <c r="P3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51" t="s">
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="51" t="s">
+      <c r="W3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="51" t="s">
+      <c r="Y3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="51" t="s">
+      <c r="Z3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="51" t="s">
+      <c r="AA3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="51" t="s">
+      <c r="AB3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="51" t="s">
+      <c r="AC3" s="46" t="s">
         <v>14</v>
       </c>
       <c r="AD3" s="17"/>
-      <c r="AE3" s="51" t="s">
+      <c r="AE3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="51" t="s">
+      <c r="AF3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="51" t="s">
+      <c r="AG3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="51" t="s">
+      <c r="AH3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="51" t="s">
+      <c r="AI3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="51" t="s">
+      <c r="AJ3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AL3" s="51" t="s">
+      <c r="AL3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AM3" s="51" t="s">
+      <c r="AM3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AN3" s="51" t="s">
+      <c r="AN3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AO3" s="51" t="s">
+      <c r="AO3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="51"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
       <c r="AD4" s="17"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="18"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
       <c r="AD5" s="17"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="5" t="s">
@@ -7212,33 +7476,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AG3:AG5"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:AR5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="AF3:AF5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AE3:AE5"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="C3:C5"/>
@@ -7255,6 +7492,33 @@
     <mergeCell ref="M3:M5"/>
     <mergeCell ref="N3:N5"/>
     <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:AR5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7296,7 +7560,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="P1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>67</v>
@@ -7308,7 +7572,7 @@
         <v>69</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>47</v>
@@ -7323,17 +7587,17 @@
       <c r="AN1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="48" t="s">
+      <c r="AO1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="50"/>
-      <c r="AT1" s="54" t="s">
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="52"/>
+      <c r="AT1" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
     </row>
     <row r="2" spans="1:48" ht="25">
       <c r="A2" s="5" t="s">
@@ -7343,10 +7607,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -7355,7 +7619,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>3</v>
@@ -7449,230 +7713,230 @@
         <v>60</v>
       </c>
       <c r="AP2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AQ2" s="14" t="s">
+      <c r="AR2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AT2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AT2" s="14" t="s">
+      <c r="AU2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AV2" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="AV2" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51" t="s">
+      <c r="O3" s="46"/>
+      <c r="P3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51" t="s">
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="51" t="s">
+      <c r="W3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="46" t="s">
         <v>14</v>
       </c>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
-      <c r="AB3" s="51" t="s">
+      <c r="AB3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="51" t="s">
+      <c r="AC3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="51" t="s">
+      <c r="AD3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AE3" s="51" t="s">
+      <c r="AE3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="51" t="s">
+      <c r="AF3" s="46" t="s">
         <v>14</v>
       </c>
       <c r="AG3" s="17"/>
-      <c r="AH3" s="51" t="s">
+      <c r="AH3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AI3" s="51" t="s">
+      <c r="AI3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="51" t="s">
+      <c r="AJ3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="51" t="s">
+      <c r="AK3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="51" t="s">
+      <c r="AL3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="51" t="s">
+      <c r="AM3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="51" t="s">
+      <c r="AO3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="51" t="s">
+      <c r="AP3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AQ3" s="51" t="s">
+      <c r="AQ3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AR3" s="51" t="s">
+      <c r="AR3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="51"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
     </row>
     <row r="4" spans="1:48">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
       <c r="AG4" s="17"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="18"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
       <c r="AG5" s="17"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="51"/>
-      <c r="AV5" s="51"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
     </row>
     <row r="6" spans="1:48">
       <c r="A6" s="5" t="s">
@@ -8939,33 +9203,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AV3:AV5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:AR5"/>
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="AT3:AT5"/>
-    <mergeCell ref="AU3:AU5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AD3:AD5"/>
-    <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="AF3:AF5"/>
-    <mergeCell ref="AH3:AH5"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="C3:C5"/>
@@ -8982,6 +9219,33 @@
     <mergeCell ref="M3:M5"/>
     <mergeCell ref="N3:N5"/>
     <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AV3:AV5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:AR5"/>
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="AT3:AT5"/>
+    <mergeCell ref="AU3:AU5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9023,7 +9287,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="P1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>67</v>
@@ -9035,7 +9299,7 @@
         <v>69</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>47</v>
@@ -9050,17 +9314,17 @@
       <c r="AN1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="48" t="s">
+      <c r="AO1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="50"/>
-      <c r="AT1" s="54" t="s">
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="52"/>
+      <c r="AT1" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
     </row>
     <row r="2" spans="1:48" ht="25">
       <c r="A2" s="5" t="s">
@@ -9070,10 +9334,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -9082,7 +9346,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>3</v>
@@ -9176,230 +9440,230 @@
         <v>60</v>
       </c>
       <c r="AP2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AQ2" s="14" t="s">
+      <c r="AR2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AT2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AT2" s="14" t="s">
+      <c r="AU2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AV2" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="AV2" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51" t="s">
+      <c r="O3" s="46"/>
+      <c r="P3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51" t="s">
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="V3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="51" t="s">
+      <c r="W3" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="46" t="s">
         <v>14</v>
       </c>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
-      <c r="AB3" s="51" t="s">
+      <c r="AB3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="51" t="s">
+      <c r="AC3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="51" t="s">
+      <c r="AD3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AE3" s="51" t="s">
+      <c r="AE3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="51" t="s">
+      <c r="AF3" s="46" t="s">
         <v>14</v>
       </c>
       <c r="AG3" s="17"/>
-      <c r="AH3" s="51" t="s">
+      <c r="AH3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AI3" s="51" t="s">
+      <c r="AI3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="51" t="s">
+      <c r="AJ3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="51" t="s">
+      <c r="AK3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="51" t="s">
+      <c r="AL3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="51" t="s">
+      <c r="AM3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="51" t="s">
+      <c r="AO3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="51" t="s">
+      <c r="AP3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AQ3" s="51" t="s">
+      <c r="AQ3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AR3" s="51" t="s">
+      <c r="AR3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="51"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
     </row>
     <row r="4" spans="1:48">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
       <c r="AG4" s="17"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
     </row>
     <row r="5" spans="1:48">
       <c r="A5" s="18"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
       <c r="AG5" s="17"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="51"/>
-      <c r="AV5" s="51"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
     </row>
     <row r="6" spans="1:48">
       <c r="A6" s="5" t="s">
@@ -10666,33 +10930,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AV3:AV5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:AR5"/>
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="AT3:AT5"/>
-    <mergeCell ref="AU3:AU5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AD3:AD5"/>
-    <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="AF3:AF5"/>
-    <mergeCell ref="AH3:AH5"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="C3:C5"/>
@@ -10709,6 +10946,33 @@
     <mergeCell ref="M3:M5"/>
     <mergeCell ref="N3:N5"/>
     <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AV3:AV5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:AR5"/>
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="AT3:AT5"/>
+    <mergeCell ref="AU3:AU5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
